--- a/doc/praes/algorithm.xlsx
+++ b/doc/praes/algorithm.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18405" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Solution2_five_sto_curve_disk -" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_SECOND_FORMAT" hidden="1">" "</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>P</t>
   </si>
@@ -64,6 +65,18 @@
   </si>
   <si>
     <t>Fehler 2</t>
+  </si>
+  <si>
+    <t>Fehler 3</t>
+  </si>
+  <si>
+    <t>Fehler 4</t>
+  </si>
+  <si>
+    <t>Fehler 5</t>
+  </si>
+  <si>
+    <t>Fehler 6</t>
   </si>
 </sst>
 </file>
@@ -670,7 +683,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -782,7 +795,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
@@ -864,7 +877,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
@@ -927,11 +940,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247920504"/>
-        <c:axId val="247913840"/>
+        <c:axId val="275156128"/>
+        <c:axId val="275154952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247920504"/>
+        <c:axId val="275156128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,12 +1001,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247913840"/>
+        <c:crossAx val="275154952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247913840"/>
+        <c:axId val="275154952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,7 +1063,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247920504"/>
+        <c:crossAx val="275156128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1166,7 +1179,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1278,7 +1291,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
@@ -1360,7 +1373,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
@@ -1423,11 +1436,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247915016"/>
-        <c:axId val="247915408"/>
+        <c:axId val="275156912"/>
+        <c:axId val="275157304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247915016"/>
+        <c:axId val="275156912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,12 +1497,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247915408"/>
+        <c:crossAx val="275157304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247915408"/>
+        <c:axId val="275157304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1559,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247915016"/>
+        <c:crossAx val="275156912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1662,7 +1675,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1774,7 +1787,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
@@ -1856,7 +1869,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
@@ -1926,7 +1939,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
@@ -1989,11 +2002,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245959352"/>
-        <c:axId val="337062312"/>
+        <c:axId val="275155344"/>
+        <c:axId val="275150640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245959352"/>
+        <c:axId val="275155344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,12 +2063,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337062312"/>
+        <c:crossAx val="275150640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="337062312"/>
+        <c:axId val="275150640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,7 +2125,725 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245959352"/>
+        <c:crossAx val="275155344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$T$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Original</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$T$9:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$U$9:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$W$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vorhersage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$V$101:$V$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$W$101:$W$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$V$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fehler 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$V$108:$V$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$W$108:$W$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$V$112</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fehler 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$V$113:$V$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$W$113:$W$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$V$117</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fehler 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$V$118:$V$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$W$118:$W$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$V$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fehler 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$V$123:$V$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Solution2_five_sto_curve_disk -'!$W$123:$W$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="364512936"/>
+        <c:axId val="272088848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="364512936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="272088848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="272088848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364512936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2313,6 +3044,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3346,6 +4117,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3952,6 +5239,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4223,10 +5542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X81"/>
+  <dimension ref="A1:X124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F73" workbookViewId="0">
-      <selection activeCell="S77" sqref="S77"/>
+    <sheetView tabSelected="1" topLeftCell="J98" workbookViewId="0">
+      <selection activeCell="S113" sqref="S113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5035,6 +6354,137 @@
         <v>-8</v>
       </c>
     </row>
+    <row r="100" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V101">
+        <v>-4</v>
+      </c>
+      <c r="W101">
+        <f t="shared" ref="W101" si="7">V101*V101*-1</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="102" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V102">
+        <v>-2</v>
+      </c>
+      <c r="W102">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="103" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V104">
+        <v>2</v>
+      </c>
+      <c r="W104">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="105" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V105">
+        <v>4</v>
+      </c>
+      <c r="W105">
+        <f t="shared" ref="W105" si="8">V105*V105*-1</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="107" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V108">
+        <v>-1</v>
+      </c>
+      <c r="W108">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="109" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V109">
+        <v>-1</v>
+      </c>
+      <c r="W109">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="112" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V113">
+        <v>1</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V114">
+        <v>1</v>
+      </c>
+      <c r="W114">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="117" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V118">
+        <v>-3</v>
+      </c>
+      <c r="W118">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="119" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V119">
+        <v>-3</v>
+      </c>
+      <c r="W119">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="122" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V123">
+        <v>3</v>
+      </c>
+      <c r="W123">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="124" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V124">
+        <v>3</v>
+      </c>
+      <c r="W124">
+        <v>-10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
